--- a/Samples/Dates_&_Time.xlsx
+++ b/Samples/Dates_&_Time.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\Survey123 Samples and Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\Survey123templates\Survey123Community\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="998">
   <si>
     <t>type</t>
   </si>
@@ -3015,6 +3015,12 @@
   </si>
   <si>
     <t>default_language</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
   </si>
 </sst>
 </file>
@@ -4460,13 +4466,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$126:$A$130</xm:f>
+            <xm:f>types!$A$127:$A$131</xm:f>
           </x14:formula1>
           <xm:sqref>T1:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$47</xm:f>
+            <xm:f>types!$A$35:$A$48</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -4768,11 +4774,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L795"/>
+  <dimension ref="A2:L796"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5088,77 +5092,79 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>380</v>
+        <v>996</v>
       </c>
       <c r="B43" t="s">
-        <v>381</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>385</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+    <row r="54" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54" t="s">
-        <v>239</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54"/>
@@ -5171,189 +5177,183 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5366,3865 +5366,3876 @@
       <c r="L71"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>207</v>
-      </c>
+      <c r="A72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
     </row>
     <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+    </row>
+    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B75" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="21"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>192</v>
-      </c>
+      <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>195</v>
+        <v>387</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B84" s="18" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B87" s="18" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" t="s">
-        <v>229</v>
+        <v>224</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B129" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B134" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C133" s="29"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="29"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="30" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
-        <v>68</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
-        <v>435</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
-        <v>436</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="30" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A164" s="15" t="s">
+    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>440</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>442</v>
+        <v>630</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>631</v>
+        <v>442</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>444</v>
+        <v>633</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>634</v>
+        <v>445</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>446</v>
+        <v>637</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>638</v>
+        <v>447</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>448</v>
+        <v>641</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>642</v>
+        <v>448</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>457</v>
+        <v>656</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>657</v>
+        <v>457</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>458</v>
+        <v>666</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>667</v>
+        <v>458</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>463</v>
+        <v>669</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>670</v>
+        <v>463</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>464</v>
+        <v>674</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>675</v>
+        <v>464</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>467</v>
+        <v>683</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>684</v>
+        <v>467</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>468</v>
+        <v>687</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>688</v>
+        <v>468</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>471</v>
+        <v>688</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>689</v>
+        <v>471</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>472</v>
+        <v>693</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>694</v>
+        <v>473</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>475</v>
+        <v>696</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>697</v>
+        <v>475</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>476</v>
+        <v>701</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>702</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>478</v>
+        <v>702</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>703</v>
+        <v>478</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>484</v>
+        <v>708</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>709</v>
+        <v>484</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>487</v>
+        <v>715</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>716</v>
+        <v>487</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>489</v>
+        <v>721</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>722</v>
+        <v>489</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>494</v>
+        <v>737</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>738</v>
+        <v>494</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>495</v>
+        <v>738</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>739</v>
+        <v>495</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>498</v>
+        <v>744</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>745</v>
+        <v>498</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>499</v>
+        <v>745</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>746</v>
+        <v>499</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="31" t="b">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="31" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>748</v>
+        <v>505</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>752</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>753</v>
+        <v>508</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>511</v>
+        <v>757</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>758</v>
+        <v>511</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>512</v>
+        <v>758</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>759</v>
+        <v>512</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>514</v>
+        <v>764</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>765</v>
+        <v>516</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>517</v>
+        <v>766</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>767</v>
+        <v>517</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>523</v>
+        <v>774</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>775</v>
+        <v>523</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>525</v>
+        <v>777</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>778</v>
+        <v>525</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>527</v>
+        <v>780</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>781</v>
+        <v>527</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>528</v>
+        <v>781</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>782</v>
+        <v>529</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>530</v>
+        <v>782</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>783</v>
+        <v>530</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>533</v>
+        <v>790</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>791</v>
+        <v>533</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>534</v>
+        <v>792</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>793</v>
+        <v>534</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>537</v>
+        <v>806</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>807</v>
+        <v>537</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>541</v>
+        <v>829</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>830</v>
+        <v>541</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>542</v>
+        <v>832</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>833</v>
+        <v>542</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>547</v>
+        <v>839</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>840</v>
+        <v>547</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>548</v>
+        <v>840</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>841</v>
+        <v>555</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>556</v>
+        <v>843</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>844</v>
+        <v>556</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>557</v>
+        <v>844</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>845</v>
+        <v>557</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>558</v>
+        <v>858</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>859</v>
+        <v>558</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>562</v>
+        <v>869</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>870</v>
+        <v>566</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>571</v>
+        <v>872</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>873</v>
+        <v>571</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>573</v>
+        <v>884</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>885</v>
+        <v>573</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>575</v>
+        <v>885</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>886</v>
+        <v>575</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>578</v>
+        <v>890</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>891</v>
+        <v>578</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>586</v>
+        <v>904</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>905</v>
+        <v>586</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>590</v>
+        <v>908</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>909</v>
+        <v>590</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>594</v>
+        <v>911</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>912</v>
+        <v>594</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>596</v>
+        <v>936</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>937</v>
+        <v>596</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>597</v>
+        <v>937</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>938</v>
+        <v>598</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>600</v>
+        <v>938</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>939</v>
+        <v>600</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>601</v>
+        <v>941</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>942</v>
+        <v>601</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" t="b">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>609</v>
+        <v>958</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>959</v>
+        <v>610</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>615</v>
+        <v>965</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>966</v>
+        <v>615</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>620</v>
+        <v>977</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>978</v>
+        <v>620</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>621</v>
+        <v>978</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>979</v>
+        <v>621</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>623</v>
+        <v>980</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>981</v>
+        <v>623</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
         <v>994</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A75">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:A83">
+  <conditionalFormatting sqref="A77:A84">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A75:A83">
-      <formula1>LEN(A75)=LEN(SUBSTITUTE(A75," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
+      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B75 B77:B86"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Samples/Dates_&_Time.xlsx
+++ b/Samples/Dates_&_Time.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\applications\Survey123templates\Survey123Community\Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Survey123Community/Samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11590" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11600" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -902,9 +905,6 @@
     <t>Your age automatically calculated</t>
   </si>
   <si>
-    <t>int((today() - ${birth_date}) div (1000 * 24 * 60 * 60 * 365.25))</t>
-  </si>
-  <si>
     <t>birth_date</t>
   </si>
   <si>
@@ -923,9 +923,6 @@
     <t>A Time 15 minutes later</t>
   </si>
   <si>
-    <t>${aTimeInTheFuture} +  (1000 * 60 * 15)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uses a Calculation </t>
   </si>
   <si>
@@ -950,9 +947,6 @@
     <t>Minutes for Lunch</t>
   </si>
   <si>
-    <t>int((${lunchends}-${lunchstarts}) div (1000*60))</t>
-  </si>
-  <si>
     <t>more60mins</t>
   </si>
   <si>
@@ -1163,9 +1157,6 @@
     <t>. &lt; date('2010-01-01')</t>
   </si>
   <si>
-    <t>A Date older than 2010</t>
-  </si>
-  <si>
     <t>Applies to select_one, select_multiple, and barcode fields, as well as repeats. Presents answers in a more space-efficient manner.</t>
   </si>
   <si>
@@ -3021,6 +3012,18 @@
   </si>
   <si>
     <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
+  </si>
+  <si>
+    <t>date-time(decimal-date-time(${aTimeInTheFuture}) +  0.0104166675)</t>
+  </si>
+  <si>
+    <t>int((decimal-date-time(today()) - decimal-date-time(${birth_date})) div 365.25)</t>
+  </si>
+  <si>
+    <t>int((decimal-date-time(${lunchends}) - decimal-date-time(${lunchstarts})) *24*60)</t>
+  </si>
+  <si>
+    <t>A Date before 2010</t>
   </si>
 </sst>
 </file>
@@ -3864,15 +3867,15 @@
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.36328125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="64.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" style="1"/>
-    <col min="6" max="6" width="24.36328125" style="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1"/>
+    <col min="6" max="6" width="24.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3952,7 +3955,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4073,10 +4076,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4088,7 +4091,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -4108,274 +4111,274 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>253</v>
       </c>
       <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E12" s="1"/>
       <c r="M12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>284</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>290</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" t="s">
         <v>310</v>
       </c>
-      <c r="L22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L23" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="L23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>327</v>
-      </c>
-      <c r="B26" t="s">
-        <v>328</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" t="s">
+        <v>358</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E27" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="W27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="U28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>364</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="W29" t="s">
         <v>368</v>
-      </c>
-      <c r="E29" t="s">
-        <v>367</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="W29" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4478,9 +4481,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -4494,15 +4494,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4541,169 +4541,169 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="C14" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="C15" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="C16" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>330</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B15" s="28" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="28" t="s">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4714,11 +4714,6 @@
   </dataValidations>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4730,15 +4725,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -4749,26 +4744,21 @@
         <v>214</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4778,19 +4768,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="74.6328125" customWidth="1"/>
-    <col min="3" max="3" width="52.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4798,7 +4788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4809,7 +4799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4820,7 +4810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -4831,7 +4821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -4842,7 +4832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -4853,7 +4843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4861,7 +4851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4869,7 +4859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -4877,7 +4867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
@@ -4885,7 +4875,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4893,7 +4883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -4901,7 +4891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -4909,7 +4899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4917,7 +4907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4925,7 +4915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -4933,7 +4923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>221</v>
       </c>
@@ -4941,7 +4931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>222</v>
       </c>
@@ -4949,7 +4939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>234</v>
       </c>
@@ -4957,7 +4947,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>250</v>
       </c>
@@ -4965,7 +4955,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>215</v>
       </c>
@@ -4973,7 +4963,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>216</v>
       </c>
@@ -4981,17 +4971,17 @@
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4999,21 +4989,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5021,12 +5011,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>232</v>
       </c>
@@ -5034,15 +5024,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -5050,7 +5040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>244</v>
       </c>
@@ -5058,7 +5048,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -5066,7 +5056,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>249</v>
       </c>
@@ -5074,7 +5064,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>255</v>
       </c>
@@ -5082,7 +5072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -5090,39 +5080,39 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B43" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -5130,20 +5120,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -5151,7 +5141,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -5159,7 +5149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
         <v>237</v>
       </c>
@@ -5177,15 +5167,15 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="14"/>
     </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
         <v>102</v>
       </c>
@@ -5202,7 +5192,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>59</v>
       </c>
@@ -5213,7 +5203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -5224,7 +5214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -5235,7 +5225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -5246,7 +5236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -5257,7 +5247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -5268,7 +5258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -5279,7 +5269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -5290,7 +5280,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
@@ -5301,7 +5291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
@@ -5312,7 +5302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -5323,7 +5313,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -5334,7 +5324,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -5345,7 +5335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
@@ -5365,7 +5355,7 @@
       <c r="K71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
@@ -5376,12 +5366,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="15" t="s">
         <v>207</v>
       </c>
@@ -5397,7 +5387,7 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="20" t="s">
         <v>208</v>
       </c>
@@ -5406,7 +5396,7 @@
       </c>
       <c r="C75" s="21"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="17" t="s">
         <v>191</v>
       </c>
@@ -5414,15 +5404,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="17" t="s">
         <v>194</v>
       </c>
@@ -5430,7 +5420,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
         <v>196</v>
       </c>
@@ -5438,7 +5428,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
         <v>197</v>
       </c>
@@ -5446,7 +5436,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="17" t="s">
         <v>199</v>
       </c>
@@ -5454,7 +5444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
         <v>201</v>
       </c>
@@ -5462,7 +5452,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="17" t="s">
         <v>203</v>
       </c>
@@ -5470,7 +5460,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="17" t="s">
         <v>205</v>
       </c>
@@ -5478,7 +5468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
         <v>212</v>
       </c>
@@ -5486,7 +5476,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
         <v>213</v>
       </c>
@@ -5494,20 +5484,20 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>123</v>
       </c>
@@ -5515,7 +5505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
@@ -5523,7 +5513,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>127</v>
       </c>
@@ -5531,7 +5521,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>129</v>
       </c>
@@ -5539,7 +5529,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
@@ -5547,7 +5537,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>133</v>
       </c>
@@ -5555,7 +5545,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>135</v>
       </c>
@@ -5563,7 +5553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -5571,7 +5561,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>139</v>
       </c>
@@ -5579,7 +5569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>141</v>
       </c>
@@ -5587,7 +5577,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>143</v>
       </c>
@@ -5595,7 +5585,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>145</v>
       </c>
@@ -5603,7 +5593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>147</v>
       </c>
@@ -5611,7 +5601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>149</v>
       </c>
@@ -5619,7 +5609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>151</v>
       </c>
@@ -5627,7 +5617,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>153</v>
       </c>
@@ -5635,7 +5625,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -5643,7 +5633,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>157</v>
       </c>
@@ -5651,7 +5641,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>159</v>
       </c>
@@ -5659,7 +5649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -5667,7 +5657,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>163</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>165</v>
       </c>
@@ -5683,7 +5673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>167</v>
       </c>
@@ -5691,7 +5681,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>169</v>
       </c>
@@ -5699,7 +5689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>171</v>
       </c>
@@ -5707,7 +5697,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -5715,7 +5705,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>139</v>
       </c>
@@ -5723,7 +5713,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>137</v>
       </c>
@@ -5731,7 +5721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>176</v>
       </c>
@@ -5739,7 +5729,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>178</v>
       </c>
@@ -5747,7 +5737,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>180</v>
       </c>
@@ -5755,7 +5745,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>182</v>
       </c>
@@ -5763,7 +5753,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>184</v>
       </c>
@@ -5771,7 +5761,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>186</v>
       </c>
@@ -5779,7 +5769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>188</v>
       </c>
@@ -5787,12 +5777,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>224</v>
       </c>
@@ -5800,7 +5790,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>226</v>
       </c>
@@ -5808,7 +5798,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>227</v>
       </c>
@@ -5816,7 +5806,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>228</v>
       </c>
@@ -5824,3404 +5814,3404 @@
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B134" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" s="29"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="29"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B154" t="s">
         <v>427</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="B154" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="30" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="30" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="30" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="30" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="30" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B165" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="13" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
         <v>438</v>
       </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="5" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="5" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="5" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="5" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="5" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="5" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="5" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="5" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="5" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="5" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="5" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="5" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="5" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="5" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="5" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="5" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="5" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="5" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="5" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="5" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="5" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="5" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" s="5" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="5" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="5" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="5" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A408" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A449" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A450" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A451" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A452" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A454" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A455" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A456" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A457" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A458" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A459" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A460" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A461" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A462" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A463" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A464" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A465" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A466" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A467" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A469" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A472" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A474" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A475" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A476" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A478" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A479" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A480" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A481" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A482" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A483" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A484" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A485" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A486" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A487" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A488" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A489" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A490" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A491" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A492" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A493" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A494" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A496" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A497" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A498" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A499" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A500" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A503" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A504" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A505" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A506" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A507" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A508" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A509" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A510" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A511" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A512" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A513" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A514" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A515" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A516" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A517" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A518" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A519" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A520" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A521" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A522" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A523" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A524" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A525" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A526" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A527" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A528" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A529" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A530" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A531" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A532" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A533" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A534" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A535" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A536" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A537" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A538" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A539" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A540" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A541" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A542" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A543" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A544" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A545" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A546" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A547" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A548" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A549" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A550" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A551" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A552" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A553" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A554" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A555" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A556" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A557" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A558" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A559" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A560" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A561" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A562" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A563" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A564" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A565" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A566" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A567" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A568" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A569" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A570" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A571" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A572" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A573" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A574" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A575" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A576" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A577" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A578" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A579" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A580" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A581" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A582" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A583" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A584" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A585" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A586" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A587" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A588" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A589" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A590" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A591" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A592" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A593" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A594" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A595" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A596" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A597" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A598" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A599" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A600" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A601" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A602" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A603" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A604" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A605" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A606" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A607" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A608" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A609" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A610" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A611" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A612" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A613" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A614" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A615" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A616" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A617" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A618" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A619" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A620" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A621" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A622" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A623" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A624" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A625" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A626" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A627" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A628" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A629" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A630" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A631" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A632" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A633" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A634" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A635" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A636" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A637" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A638" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A639" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A640" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A641" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A642" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A643" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A644" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A645" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A646" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A647" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A648" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A649" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A650" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A651" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A652" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A653" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A654" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A655" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A656" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A657" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A658" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A659" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A660" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A661" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A662" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A663" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A664" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A665" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A666" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A667" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A668" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A669" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A670" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A671" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A672" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A673" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A674" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A675" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A676" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A677" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A678" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A679" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A680" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A681" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A682" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A683" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A684" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A685" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A686" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A687" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A688" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A689" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A690" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A691" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A692" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A693" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A694" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A695" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A696" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A697" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A698" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A699" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A700" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A701" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A702" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A703" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A704" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A705" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A706" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A707" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A708" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A709" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A710" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A711" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A712" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A713" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A714" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A715" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A716" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A717" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A718" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A719" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A720" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A721" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A722" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A723" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A724" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A725" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A726" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A727" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A728" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A729" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A730" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A731" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A732" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A733" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A734" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A735" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A736" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A737" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A738" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A739" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A740" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A741" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A742" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A743" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A744" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A745" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A746" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A747" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A748" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A749" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A750" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A751" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A752" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A754" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A755" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A756" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A757" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A758" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A759" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A760" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A761" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A762" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A763" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A764" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A765" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A766" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A767" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A768" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A769" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A770" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A771" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A772" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A773" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A774" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A775" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A776" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A777" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A778" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A779" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A780" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A781" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A782" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A783" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A784" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A785" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A786" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A787" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A788" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A789" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A790" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A791" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A792" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A793" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A794" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A795" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A796" t="s">
         <v>990</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -9239,10 +9229,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Samples/Dates_&_Time.xlsx
+++ b/Samples/Dates_&_Time.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Survey123Community/Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Applications\Survey123Community\Survey123Community\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11600" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="1012">
   <si>
     <t>type</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Use a comma separated list to set default values for select_multiple fields.</t>
   </si>
   <si>
-    <t>Set the default date to today's date.</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -3024,13 +3021,58 @@
   </si>
   <si>
     <t>A Date before 2010</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats. Group of questions will appear collapsed on startup.</t>
+  </si>
+  <si>
+    <t>minimal compact</t>
+  </si>
+  <si>
+    <t>Applies to repeats. Group of questions is displayed both collapsed and hidden.</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats, when style is set to pages. Displays group of questions on a separate page.</t>
+  </si>
+  <si>
+    <t>hide-input</t>
+  </si>
+  <si>
+    <t>Applies to geopoint fields. Collapses the coordinate entry section of the widget in web form.</t>
+  </si>
+  <si>
+    <t>Set the default date to today's date, at midnight. Applies to date questions.</t>
+  </si>
+  <si>
+    <t>Sets the default value to the current date and time. Applies to time and dateTime questions.</t>
+  </si>
+  <si>
+    <t>esriFieldTypeGUID</t>
+  </si>
+  <si>
+    <t>Globally Unique Identifier</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3276,7 +3318,23 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3457,15 +3515,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:W243" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:W243" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:W243"/>
   <tableColumns count="23">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="4"/>
-    <tableColumn id="4" name="hint" dataDxfId="3"/>
+    <tableColumn id="3" name="label" dataDxfId="6"/>
+    <tableColumn id="4" name="hint" dataDxfId="5"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="4"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3798,7 +3856,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3840,7 +3898,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3867,7 +3925,7 @@
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -3875,7 +3933,7 @@
     <col min="6" max="6" width="24.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3916,10 +3974,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>104</v>
@@ -3934,16 +3992,16 @@
         <v>57</v>
       </c>
       <c r="T1" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>220</v>
-      </c>
       <c r="V1" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="W1" s="26" t="s">
-        <v>258</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -3955,430 +4013,430 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:32" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="I6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="16.5" customHeight="1">
       <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" t="s">
         <v>262</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="M7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="16.5" customHeight="1">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="16.5" customHeight="1">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" ht="16.5" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" customHeight="1">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E12" s="1"/>
       <c r="M12" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" customHeight="1">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:32" ht="16.5" customHeight="1">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="16.5" customHeight="1">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M15" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" customHeight="1">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:23" ht="16.5" customHeight="1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" customHeight="1">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="M20" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" customHeight="1">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="L21" t="s">
         <v>312</v>
       </c>
-      <c r="L21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:23" ht="16.5" customHeight="1">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" customHeight="1">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" t="s">
         <v>308</v>
       </c>
-      <c r="L23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:23" ht="16.5" customHeight="1">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5" customHeight="1">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" customHeight="1">
+      <c r="A26" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>324</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" customHeight="1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" customHeight="1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" t="s">
         <v>359</v>
       </c>
-      <c r="E28" t="s">
-        <v>360</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5" customHeight="1">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E29" t="s">
-        <v>364</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4402,22 +4460,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24 B18:B20 B2 B5:B16 B26:B27 B29:B240">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="1230" yWindow="762" count="18">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C23 C25:C1048576"/>
@@ -4469,13 +4527,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$127:$A$131</xm:f>
+            <xm:f>types!$A$132:$A$137</xm:f>
           </x14:formula1>
           <xm:sqref>T1:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$48</xm:f>
+            <xm:f>types!$A$35:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -4494,15 +4552,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4519,7 +4577,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4530,7 +4588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4541,169 +4599,169 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C6" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="C7" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="C13" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="28" t="s">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B16" s="28" t="s">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="28" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="28" t="s">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4719,21 +4777,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+    <col min="7" max="7" width="17.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -4741,18 +4802,27 @@
         <v>19</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1009</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="C7" s="11"/>
     </row>
   </sheetData>
@@ -4764,23 +4834,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L796"/>
+  <dimension ref="A2:L802"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
     <col min="2" max="2" width="74.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="13.15">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4788,7 +4858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4799,7 +4869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,7 +4880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -4821,7 +4891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -4832,7 +4902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -4843,7 +4913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4851,7 +4921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4859,7 +4929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -4867,15 +4937,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4883,7 +4953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -4891,7 +4961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -4899,7 +4969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4907,7 +4977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4915,73 +4985,73 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="25.5">
       <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5">
+      <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="13.15">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4989,21 +5059,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="13.15">
       <c r="A30" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5011,151 +5081,160 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" ht="13.15">
       <c r="A34" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
         <v>232</v>
       </c>
-      <c r="B35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>991</v>
+      </c>
+      <c r="B43" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>992</v>
-      </c>
-      <c r="B43" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>376</v>
-      </c>
-      <c r="B44" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B45" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>381</v>
       </c>
-      <c r="B48" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="14" t="s">
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>997</v>
+      </c>
+      <c r="B49" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="8" customFormat="1" ht="13.15">
+      <c r="A54" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" t="s">
-        <v>238</v>
-      </c>
+      <c r="B54"/>
       <c r="C54" s="5"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -5167,24 +5246,29 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
       <c r="B55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -5192,158 +5276,130 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+    <row r="59" spans="1:12" ht="13.15">
+      <c r="A59" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="13.15">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.15">
+      <c r="A62" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+    <row r="71" spans="1:12" s="22" customFormat="1">
+      <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5355,31 +5411,38 @@
       <c r="K71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -5387,3845 +5450,3901 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="20" t="s">
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" ht="13.15">
+      <c r="A79" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="21"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="17" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A85" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A86" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A87" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B87" s="18" t="s">
+    </row>
+    <row r="94" spans="1:2" ht="13.15">
+      <c r="A94" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="25.5">
+      <c r="A98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="25.5">
+      <c r="A125" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13.15">
+      <c r="A131" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13.15">
+      <c r="A139" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C140" s="29"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="160" spans="1:3" ht="13.15">
+      <c r="A160" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B160" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="30" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="30" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C134" s="29"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B154" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="30" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157" s="30" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" s="30" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="30" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162" s="30" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="30" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163" s="30" t="s">
+    <row r="171" spans="1:2" ht="13.15">
+      <c r="A171" s="15" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="15" t="s">
+      <c r="B171" t="s">
         <v>434</v>
       </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="5" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="5" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="5" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="5" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="5" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="5" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="5" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="5" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="5" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="5" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="5" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="5" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A301" s="5" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A302" s="5" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A303" s="5" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" s="5" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" s="5" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A306" s="5" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" s="5" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A308" s="5" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="5" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A309" s="5" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A310" s="5" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A311" s="5" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A312" s="5" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A313" s="5" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A314" s="5" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A315" s="5" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A316" s="5" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A317" s="5" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A318" s="5" t="s">
+    <row r="325" spans="1:1">
+      <c r="A325" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A319" s="5" t="s">
+    <row r="326" spans="1:1">
+      <c r="A326" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" s="5" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A321" s="5" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A322" s="5" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A323" s="5" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A324" s="5" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" s="5" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A326" s="5" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A327" s="5" t="s">
+    <row r="334" spans="1:1">
+      <c r="A334" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A328" s="5" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A329" s="5" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A330" s="5" t="s">
+    <row r="337" spans="1:1">
+      <c r="A337" s="5" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A331" s="5" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="5" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A332" s="5" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="5" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A333" s="5" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="5" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A334" s="5" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A335" s="5" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A336" s="5" t="s">
+    <row r="343" spans="1:1">
+      <c r="A343" s="5" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A337" s="5" t="s">
+    <row r="344" spans="1:1">
+      <c r="A344" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A338" s="5" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="5" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A339" s="5" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="5" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A340" s="5" t="s">
+    <row r="347" spans="1:1">
+      <c r="A347" s="5" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A341" s="5" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A342" s="5" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="5" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A343" s="5" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A344" s="5" t="s">
+    <row r="351" spans="1:1">
+      <c r="A351" s="5" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A345" s="5" t="s">
+    <row r="352" spans="1:1">
+      <c r="A352" s="5" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A346" s="5" t="s">
+    <row r="353" spans="1:1">
+      <c r="A353" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A347" s="5" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A348" s="5" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" s="5" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A349" s="5" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" s="5" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A350" s="5" t="s">
+    <row r="357" spans="1:1">
+      <c r="A357" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A351" s="5" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A352" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A353" t="s">
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" t="s">
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A355" t="s">
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A356" t="s">
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A357" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A358" t="s">
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A359" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A360" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A361" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A362" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A363" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A364" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A365" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A366" t="s">
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A367" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A368" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A369" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A371" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A372" t="s">
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A373" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A374" t="s">
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A375" t="s">
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A376" t="s">
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A377" t="s">
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A378" t="s">
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A379" t="s">
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A380" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A381" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A382" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A383" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A385" t="s">
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A386" t="s">
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A387" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A388" t="s">
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A389" t="s">
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A390" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A391" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A392" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A393" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A394" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A395" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A396" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A397" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A398" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A399" t="s">
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A400" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A401" t="s">
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A402" t="s">
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A403" t="s">
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A404" t="s">
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A405" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A406" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A407" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A408" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A409" t="s">
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A410" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A411" t="s">
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A412" t="s">
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A413" t="s">
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A414" t="s">
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A415" t="s">
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A416" t="s">
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A417" t="s">
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A418" t="s">
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A419" t="s">
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A420" t="s">
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A421" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A422" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A423" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A424" t="s">
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A425" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A426" t="s">
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A427" t="s">
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A428" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A429" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A430" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A431" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A432" t="s">
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A433" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A434" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A435" t="s">
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A436" t="s">
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A437" t="s">
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A438" t="s">
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A439" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A440" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A441" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A442" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A443" t="s">
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A444" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A445" t="s">
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A446" t="s">
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A447" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A448" t="s">
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A449" t="s">
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A450" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A451" t="s">
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A452" t="s">
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A453" t="s">
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A454" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A455" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A456" t="s">
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A457" t="s">
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A458" t="s">
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A459" t="s">
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A460" t="s">
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A461" t="s">
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A462" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A463" t="s">
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A464" t="s">
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A465" t="s">
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A466" t="s">
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A467" t="s">
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A468" t="s">
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A469" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A470" t="s">
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A471" t="s">
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A472" t="s">
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A473" t="s">
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A474" t="s">
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A475" t="s">
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A476" t="s">
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A477" t="s">
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A478" t="s">
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A479" t="s">
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A480" t="s">
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A481" t="s">
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A482" t="s">
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A483" t="s">
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A484" t="s">
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A485" t="s">
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A486" t="s">
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A487" t="s">
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A488" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A489" t="s">
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A490" t="s">
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A491" t="s">
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A492" t="s">
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A493" t="s">
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A494" t="s">
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A495" t="s">
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A496" t="s">
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A497" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A498" t="s">
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A499" t="s">
+    <row r="506" spans="1:1">
+      <c r="A506" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A500" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A501" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A502" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A503" t="s">
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A504" t="s">
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A505" t="s">
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A506" t="s">
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A507" t="s">
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A508" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A509" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A510" t="s">
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A511" t="s">
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A512" t="s">
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A513" t="s">
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A514" t="s">
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A515" t="s">
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A516" t="s">
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A517" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A518" t="s">
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A519" t="s">
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A520" t="s">
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A521" t="s">
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A522" t="s">
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A523" t="s">
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A524" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A525" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A526" t="s">
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A527" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A528" t="s">
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A529" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A530" t="s">
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A531" t="s">
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A532" t="s">
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A533" t="s">
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A534" t="s">
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A535" t="s">
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A536" t="s">
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A537" t="s">
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A538" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A539" t="s">
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A540" t="s">
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A541" t="s">
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A542" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A543" t="s">
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A544" t="s">
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A545" t="s">
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A546" t="s">
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A547" t="s">
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A548" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A549" t="s">
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A550" t="s">
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A551" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A552" t="s">
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A553" t="s">
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A554" t="s">
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A555" t="s">
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A556" t="s">
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A557" t="s">
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A558" t="s">
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A559" t="s">
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A560" t="s">
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A561" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A562" t="s">
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A563" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A564" t="s">
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A565" t="s">
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A566" t="s">
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A567" t="s">
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A568" t="s">
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A569" t="s">
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A570" t="s">
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A571" t="s">
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A572" t="s">
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A573" t="s">
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A574" t="s">
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A575" t="s">
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A576" t="s">
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A577" t="s">
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A578" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A579" t="s">
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A580" t="s">
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A581" t="s">
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A582" t="s">
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A583" t="s">
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A584" t="s">
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A585" t="s">
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A586" t="s">
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A587" t="s">
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A588" t="s">
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A589" t="s">
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A590" t="s">
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A591" t="s">
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A592" t="s">
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A593" t="s">
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A594" t="s">
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A595" t="s">
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A596" t="s">
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A597" t="s">
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A598" t="s">
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A599" t="s">
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A600" t="s">
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A601" t="s">
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A602" t="s">
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A603" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A604" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A605" t="s">
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A606" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A607" t="s">
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A608" t="s">
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A609" t="s">
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A610" t="s">
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A611" t="s">
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A612" t="s">
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A613" t="s">
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A614" t="s">
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A615" t="s">
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A616" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A617" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A618" t="s">
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A619" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A620" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A621" t="s">
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A622" t="s">
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A623" t="s">
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A624" t="s">
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A625" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A626" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A627" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A628" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A629" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A630" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A631" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A632" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A633" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A634" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A635" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A636" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A637" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A638" t="s">
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A639" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A640" t="s">
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A641" t="s">
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A642" t="s">
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A643" t="s">
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A644" t="s">
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A645" t="s">
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A646" t="s">
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A647" t="s">
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A648" t="s">
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A649" t="s">
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A650" t="s">
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A651" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A652" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A653" t="s">
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A654" t="s">
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A655" t="s">
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A656" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A657" t="s">
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A658" t="s">
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A659" t="s">
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A660" t="s">
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A661" t="s">
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A662" t="s">
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A663" t="s">
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A664" t="s">
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A665" t="s">
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A666" t="s">
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A667" t="s">
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A668" t="s">
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A669" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A670" t="s">
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A671" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A672" t="s">
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A673" t="s">
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A674" t="s">
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A675" t="s">
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A676" t="s">
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A677" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A678" t="s">
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A679" t="s">
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A680" t="s">
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A681" t="s">
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A682" t="s">
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A683" t="s">
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A684" t="s">
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A685" t="s">
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A686" t="s">
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A687" t="s">
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A688" t="s">
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A689" t="s">
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A690" t="s">
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A691" t="s">
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A692" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A693" t="s">
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A694" t="s">
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A695" t="s">
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A696" t="s">
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A697" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A698" t="s">
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A699" t="s">
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A700" t="s">
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A701" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A702" t="s">
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A703" t="s">
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A704" t="s">
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A705" t="s">
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A706" t="s">
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A707" t="s">
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A708" t="s">
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A709" t="s">
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A710" t="s">
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A711" t="s">
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A712" t="s">
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A713" t="s">
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A714" t="s">
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A715" t="s">
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A716" t="s">
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A717" t="s">
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A718" t="s">
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A719" t="s">
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A720" t="s">
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A721" t="s">
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A722" t="s">
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A723" t="s">
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A724" t="s">
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A725" t="s">
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A726" t="s">
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A727" t="s">
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A728" t="s">
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A729" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A730" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A731" t="s">
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A732" t="s">
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A733" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A734" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A735" t="s">
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A736" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A737" t="s">
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A738" t="s">
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A739" t="s">
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A740" t="s">
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A741" t="s">
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A742" t="s">
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A743" t="s">
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A744" t="s">
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A745" t="s">
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A746" t="s">
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A747" t="s">
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A748" t="s">
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A749" t="s">
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A750" t="s">
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A751" t="s">
+    <row r="758" spans="1:1">
+      <c r="A758" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A752" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A753" t="s">
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A754" t="s">
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A755" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A756" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A757" t="s">
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A758" t="s">
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A759" t="s">
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A760" t="s">
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A761" t="s">
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A762" t="s">
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A763" t="s">
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A764" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A765" t="s">
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A766" t="s">
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A767" t="s">
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A768" t="s">
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A769" t="s">
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A770" t="s">
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A771" t="s">
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A772" t="s">
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A773" t="s">
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A774" t="s">
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A775" t="s">
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A776" t="s">
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A777" t="s">
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A778" t="s">
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A779" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A780" t="s">
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A781" t="s">
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A782" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A783" t="s">
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A784" t="s">
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A785" t="s">
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A786" t="s">
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A787" t="s">
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A788" t="s">
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A789" t="s">
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A790" t="s">
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A791" t="s">
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A792" t="s">
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A793" t="s">
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A794" t="s">
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A795" t="s">
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A796" t="s">
-        <v>990</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A81">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A84">
+  <conditionalFormatting sqref="A82:A89">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
-      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A81:A89">
+      <formula1>LEN(A81)=LEN(SUBSTITUTE(A81," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B81 B83:B92"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Samples/Dates_&_Time.xlsx
+++ b/Samples/Dates_&_Time.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Survey123Community/Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil9289\Downloads\Survey123\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11600" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="1013">
   <si>
     <t>type</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Use a comma separated list to set default values for select_multiple fields.</t>
   </si>
   <si>
-    <t>Set the default date to today's date.</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -812,18 +809,12 @@
     <t>Scan a barcode or a QR code.</t>
   </si>
   <si>
-    <t>aDate</t>
-  </si>
-  <si>
     <t>A Date Question</t>
   </si>
   <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>aDateTime</t>
-  </si>
-  <si>
     <t>A DateTime Question</t>
   </si>
   <si>
@@ -836,39 +827,24 @@
     <t>now()</t>
   </si>
   <si>
-    <t>aDateYear</t>
-  </si>
-  <si>
     <t>Another Date Question</t>
   </si>
   <si>
     <t>Appearance is set to Year</t>
   </si>
   <si>
-    <t>aDateMonthYear</t>
-  </si>
-  <si>
     <t>And yet another Date Question</t>
   </si>
   <si>
     <t>Appearance is set to MonthYear</t>
   </si>
   <si>
-    <t>aTime</t>
-  </si>
-  <si>
     <t>A Time Question</t>
   </si>
   <si>
-    <t>BasicTypes</t>
-  </si>
-  <si>
     <t>&lt;center&gt;&lt;font color = 'blue'&gt;Basic Types and Appearances&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
-    <t>aDateWeek</t>
-  </si>
-  <si>
     <t>A Date Question With Week Numbers</t>
   </si>
   <si>
@@ -881,9 +857,6 @@
     <t>&lt;center&gt;&lt;font color = 'blue'&gt;Constraints and Calculations&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
-    <t>ConstraintsCalcs</t>
-  </si>
-  <si>
     <t>.&lt; today()</t>
   </si>
   <si>
@@ -896,9 +869,6 @@
     <t>A Time in the Future</t>
   </si>
   <si>
-    <t>aTimeInTheFuture</t>
-  </si>
-  <si>
     <t>Constraint set to: .&gt;now()</t>
   </si>
   <si>
@@ -917,9 +887,6 @@
     <t>A Date question with no default set</t>
   </si>
   <si>
-    <t>ATime15minLater</t>
-  </si>
-  <si>
     <t>A Time 15 minutes later</t>
   </si>
   <si>
@@ -941,9 +908,6 @@
     <t>lunchends</t>
   </si>
   <si>
-    <t>timeForLunch</t>
-  </si>
-  <si>
     <t>Minutes for Lunch</t>
   </si>
   <si>
@@ -959,21 +923,12 @@
     <t>&lt;center&gt;That is more than an hour!&lt;/center&gt;</t>
   </si>
   <si>
-    <t>${timeForLunch}&gt;60</t>
-  </si>
-  <si>
-    <t>${timeForLunch}&lt;60</t>
-  </si>
-  <si>
     <t>just60mins</t>
   </si>
   <si>
     <t>&lt;center&gt;That is exactly one hour!&lt;/center&gt;</t>
   </si>
   <si>
-    <t>${timeForLunch}=60</t>
-  </si>
-  <si>
     <t>Will use a Calculate question and Relevant statements</t>
   </si>
   <si>
@@ -983,18 +938,9 @@
     <t>Birthdays happen in the past!</t>
   </si>
   <si>
-    <t>CalcsRelevant</t>
-  </si>
-  <si>
     <t>&lt;center&gt;&lt;font color = 'blue'&gt;Calculates and Relevants&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
-    <t>timeMasks</t>
-  </si>
-  <si>
-    <t>timeMask</t>
-  </si>
-  <si>
     <t>Military Time</t>
   </si>
   <si>
@@ -1007,9 +953,6 @@
     <t>select_one Times</t>
   </si>
   <si>
-    <t>timeSelectOne</t>
-  </si>
-  <si>
     <t>Time from a List</t>
   </si>
   <si>
@@ -1115,15 +1058,9 @@
     <t>(int(substr(.,0,2))&lt;24) and (int(substr(.,2,4))&lt;60)</t>
   </si>
   <si>
-    <t>timeConstraint</t>
-  </si>
-  <si>
     <t>Military Time with Time Zone</t>
   </si>
   <si>
-    <t>timeZone</t>
-  </si>
-  <si>
     <t>regex(.,'^([0-1][0-9]|[2][0-3])([0-5][0-9])([A-Z])$')</t>
   </si>
   <si>
@@ -1145,9 +1082,6 @@
     <t>Military Time with Time Zone incorrect</t>
   </si>
   <si>
-    <t>ADateOlderThan2016</t>
-  </si>
-  <si>
     <t>Uses a constraint</t>
   </si>
   <si>
@@ -3014,9 +2948,6 @@
     <t>Applies to integer and decimal fields. Displays a custom calculator widget.</t>
   </si>
   <si>
-    <t>date-time(decimal-date-time(${aTimeInTheFuture}) +  0.0104166675)</t>
-  </si>
-  <si>
     <t>int((decimal-date-time(today()) - decimal-date-time(${birth_date})) div 365.25)</t>
   </si>
   <si>
@@ -3024,13 +2955,127 @@
   </si>
   <si>
     <t>A Date before 2010</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats. Group of questions will appear collapsed on startup.</t>
+  </si>
+  <si>
+    <t>minimal compact</t>
+  </si>
+  <si>
+    <t>Applies to repeats. Group of questions is displayed both collapsed and hidden.</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>Applies to groups and repeats, when style is set to pages. Displays group of questions on a separate page.</t>
+  </si>
+  <si>
+    <t>hide-input</t>
+  </si>
+  <si>
+    <t>Applies to geopoint fields. Collapses the coordinate entry section of the widget in web form.</t>
+  </si>
+  <si>
+    <t>Set the default date to today's date, at midnight. Applies to date questions.</t>
+  </si>
+  <si>
+    <t>Sets the default value to the current date and time. Applies to time and dateTime questions.</t>
+  </si>
+  <si>
+    <t>esriFieldTypeGUID</t>
+  </si>
+  <si>
+    <t>Globally Unique Identifier</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>bind::type</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>timeconstraint</t>
+  </si>
+  <si>
+    <t>timemask</t>
+  </si>
+  <si>
+    <t>timeselectone</t>
+  </si>
+  <si>
+    <t>timemasks</t>
+  </si>
+  <si>
+    <t>timeforlunch</t>
+  </si>
+  <si>
+    <t>calcsrelevant</t>
+  </si>
+  <si>
+    <t>adateolderthan2016</t>
+  </si>
+  <si>
+    <t>atime15minlater</t>
+  </si>
+  <si>
+    <t>atimeinthefuture</t>
+  </si>
+  <si>
+    <t>constraintscalcs</t>
+  </si>
+  <si>
+    <t>atime</t>
+  </si>
+  <si>
+    <t>adatetime</t>
+  </si>
+  <si>
+    <t>adatemonthyear</t>
+  </si>
+  <si>
+    <t>adateyear</t>
+  </si>
+  <si>
+    <t>adateweek</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>basictypes</t>
+  </si>
+  <si>
+    <t>${timeforlunch}&gt;60</t>
+  </si>
+  <si>
+    <t>${timeforlunch}&lt;60</t>
+  </si>
+  <si>
+    <t>${timeforlunch}=60</t>
+  </si>
+  <si>
+    <t>date-time(decimal-date-time(${atimeinthefuture}) +  0.0104166675)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3457,9 +3502,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:W243" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:W243"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X243" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:X243"/>
+  <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
     <tableColumn id="3" name="label" dataDxfId="4"/>
@@ -3479,6 +3524,7 @@
     <tableColumn id="13" name="hint::language1"/>
     <tableColumn id="16" name="media::audio"/>
     <tableColumn id="17" name="media::image"/>
+    <tableColumn id="24" name="bind::type"/>
     <tableColumn id="15" name="bind::esri:fieldType"/>
     <tableColumn id="18" name="bind::esri:fieldLength"/>
     <tableColumn id="23" name="bind::esri:fieldAlias"/>
@@ -3798,7 +3844,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3840,7 +3886,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3860,22 +3906,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1"/>
-    <col min="6" max="6" width="24.33203125" style="1"/>
+    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1"/>
+    <col min="6" max="6" width="24.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3898,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3916,10 +3962,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>104</v>
@@ -3933,19 +3979,21 @@
       <c r="S1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -3954,431 +4002,432 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
-    </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>1008</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>1007</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" ht="16.5" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" ht="16.5" customHeight="1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>1004</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="16.5" customHeight="1">
       <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="M7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="16.5" customHeight="1">
       <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="16.5" customHeight="1">
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" ht="16.5" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="E12" s="1"/>
       <c r="M12" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="16.5" customHeight="1">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>998</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="16.5" customHeight="1">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="16.5" customHeight="1">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L15" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="M15" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" customHeight="1">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>997</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" customHeight="1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" customHeight="1">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" customHeight="1">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>996</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M20" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" customHeight="1">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" customHeight="1">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" customHeight="1">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>995</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>994</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" customHeight="1">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>993</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="W27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>348</v>
+      </c>
+      <c r="X27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" customHeight="1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>992</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="U28">
+        <v>348</v>
+      </c>
+      <c r="V28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5" customHeight="1">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>363</v>
+        <v>991</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="W29" t="s">
-        <v>368</v>
+        <v>349</v>
+      </c>
+      <c r="X29" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4419,7 +4468,7 @@
   <conditionalFormatting sqref="B28">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
-  <dataValidations xWindow="1230" yWindow="762" count="18">
+  <dataValidations xWindow="1230" yWindow="762" count="19">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C23 C25:C1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hint" prompt="This will act as extra information that can help to answer the survey question (e.g., Distances should be entered in miles)." sqref="D1:D1048576"/>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Field Name" error="Name cannot exceed 32 characters. Name cannot include spaces or non-ascii characters." promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces or non-ascii characters (e.g., first_name, survey_date)." sqref="B1:B1048576">
@@ -4433,13 +4482,14 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Localization - Label" prompt="Enter translations for your survey questions here. Include any further translations by creating a new column (e.g., label::Chinese). The list of languages will appear in a drop-down menu on the survey." sqref="P1:P1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Localization - Hint" prompt="Enter translations for your survey question hints here. Include any further translations by creating a new column (e.g., hint::Chinese). The list of languages will appear in a drop-down menu on the survey." sqref="Q1:Q1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Calculation" prompt="Perform calculations using the values of preceeding questions (e.g., ${number}*100). Reference the calculate field to display the result (e.g., The answer is ${calc}). " sqref="M14 M18:M24 M26:M1048576 M1:M2 M9:M11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:fieldLength" prompt="Define the target field length in the feature service. This can be used to overwrite the default field length." sqref="U1:U1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:fieldLength" prompt="Define the target field length in the feature service. This can be used to overwrite the default field length." sqref="V1:V1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="choice_filter" prompt="When using cascading selects, this field is used to hold the expression to match the additional attribute columns on the choices tab (e.g., attribute=${value})." sqref="N1:N1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Message" prompt="When a required field has no response, this message will appear to prompt for an answer  (e.g., Please enter you name. This information is required.)." sqref="H1:H1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="repeat_count" prompt="This value is used to specify the number of records available in a repeat. Once the repeat count has been specified, records within the repeat cannot be added or deleted." sqref="O1:O1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:fieldAlias" prompt="Enter values to be used as the field alias in your feature service. This can be used to overwrite the default field alias values, which are derived from the question label." sqref="V1:V1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="body::esri:inputMask" prompt="Enter an expression to use an input mask to provide a set format for data entry in by using characters and symbols." sqref="W1:W1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:fieldAlias" prompt="Enter values to be used as the field alias in your feature service. This can be used to overwrite the default field alias values, which are derived from the question label." sqref="W1:W1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="body::esri:inputMask" prompt="Enter an expression to use an input mask to provide a set format for data entry in by using characters and symbols." sqref="X1:X1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Set the default value for this field. This will pre-populate the survey with the default value. This can either be used to save time by supplying a commonly used answer or by showing what type of answer choice is expected." sqref="J1:J2 J9:J1048576 M3:M8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::type" prompt="Define the field type that will be used for the question in the XLSForm." sqref="T1:T1048576"/>
   </dataValidations>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4469,13 +4519,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$127:$A$131</xm:f>
+            <xm:f>types!$A$132:$A$137</xm:f>
           </x14:formula1>
-          <xm:sqref>T1:T1048576</xm:sqref>
+          <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$48</xm:f>
+            <xm:f>types!$A$35:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -4494,15 +4544,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4519,7 +4569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4530,7 +4580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4541,169 +4591,169 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="28" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="28" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" s="28" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="28" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="28" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="28" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="28" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4719,21 +4769,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -4741,18 +4794,27 @@
         <v>19</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>987</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="C7" s="11"/>
     </row>
   </sheetData>
@@ -4764,23 +4826,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L796"/>
+  <dimension ref="A2:L802"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4788,7 +4850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4799,7 +4861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,7 +4872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -4821,7 +4883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -4832,7 +4894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -4843,7 +4905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4851,7 +4913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -4859,7 +4921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -4867,15 +4929,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4883,7 +4945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -4891,7 +4953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -4899,7 +4961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -4907,7 +4969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -4915,73 +4977,73 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="25.5">
       <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5">
+      <c r="A20" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4989,21 +5051,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -5011,151 +5073,160 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
         <v>232</v>
       </c>
-      <c r="B35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
         <v>119</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>970</v>
+      </c>
+      <c r="B43" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B42" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>992</v>
-      </c>
-      <c r="B43" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>376</v>
-      </c>
-      <c r="B44" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>378</v>
-      </c>
-      <c r="B45" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>975</v>
+      </c>
+      <c r="B49" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>977</v>
+      </c>
+      <c r="B50" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>979</v>
+      </c>
+      <c r="B51" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>981</v>
+      </c>
+      <c r="B52" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="8" customFormat="1">
+      <c r="A54" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" t="s">
-        <v>238</v>
-      </c>
+      <c r="B54"/>
       <c r="C54" s="5"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -5167,24 +5238,29 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
       <c r="B55" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+        <v>983</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -5192,158 +5268,130 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="14"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+    <row r="71" spans="1:12" s="22" customFormat="1">
+      <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5355,31 +5403,38 @@
       <c r="K71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A74" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -5387,3845 +5442,3901 @@
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A75" s="20" t="s">
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" s="21"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A76" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A77" s="17" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="25.5">
+      <c r="A98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="25.5">
+      <c r="A125" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C140" s="29"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A78" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A79" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A80" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A85" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A86" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A87" s="19" t="s">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B149" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B160" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C134" s="29"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B171" t="s">
         <v>413</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B147" s="1" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>415</v>
       </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>416</v>
       </c>
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>417</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>418</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
         <v>419</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
         <v>420</v>
       </c>
-      <c r="B150" s="1" t="s">
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
         <v>421</v>
       </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
         <v>422</v>
       </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
         <v>423</v>
       </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" s="1" t="s">
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
         <v>424</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
         <v>425</v>
       </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="14" t="s">
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
         <v>426</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="30" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="30" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A157" s="30" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A158" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A159" s="30" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A160" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162" s="30" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163" s="30" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="15" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
         <v>434</v>
       </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" s="1" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="5" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="5" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="5" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="5" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="5" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="5" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="5" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="5" t="s">
+    <row r="325" spans="1:1">
+      <c r="A325" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="5" t="s">
+    <row r="326" spans="1:1">
+      <c r="A326" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="5" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="5" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="5" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A301" s="5" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="5" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A302" s="5" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A303" s="5" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="5" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" s="5" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" s="5" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A306" s="5" t="s">
+    <row r="334" spans="1:1">
+      <c r="A334" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" s="5" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A308" s="5" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="5" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A309" s="5" t="s">
+    <row r="337" spans="1:1">
+      <c r="A337" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A310" s="5" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A311" s="5" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A312" s="5" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A313" s="5" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A314" s="5" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A315" s="5" t="s">
+    <row r="343" spans="1:1">
+      <c r="A343" s="5" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A316" s="5" t="s">
+    <row r="344" spans="1:1">
+      <c r="A344" s="5" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A317" s="5" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A318" s="5" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A319" s="5" t="s">
+    <row r="347" spans="1:1">
+      <c r="A347" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" s="5" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="5" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A321" s="5" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="5" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A322" s="5" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A323" s="5" t="s">
+    <row r="351" spans="1:1">
+      <c r="A351" s="5" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A324" s="5" t="s">
+    <row r="352" spans="1:1">
+      <c r="A352" s="5" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" s="5" t="s">
+    <row r="353" spans="1:1">
+      <c r="A353" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A326" s="5" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A327" s="5" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A328" s="5" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" s="5" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A329" s="5" t="s">
+    <row r="357" spans="1:1">
+      <c r="A357" s="5" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A330" s="5" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A331" s="5" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A332" s="5" t="s">
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A333" s="5" t="s">
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A334" s="5" t="s">
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A335" s="5" t="s">
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A336" s="5" t="s">
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A337" s="5" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A338" s="5" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A339" s="5" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A340" s="5" t="s">
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A341" s="5" t="s">
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A342" s="5" t="s">
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A343" s="5" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A344" s="5" t="s">
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A345" s="5" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A346" s="5" t="s">
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A347" s="5" t="s">
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A348" s="5" t="s">
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A349" s="5" t="s">
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A350" s="5" t="s">
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A351" s="5" t="s">
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A352" t="s">
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A353" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" t="s">
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A355" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A356" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A357" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A358" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A359" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A360" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A361" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A362" t="s">
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A363" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A364" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A365" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A366" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A367" t="s">
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A368" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A369" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A371" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A372" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A373" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A374" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A375" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A376" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A377" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A378" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A379" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A380" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A381" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A382" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A383" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A385" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A386" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A387" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A388" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A389" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A390" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A391" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A392" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A393" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A394" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A395" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A396" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A397" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A398" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A399" t="s">
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A400" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A401" t="s">
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A402" t="s">
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A403" t="s">
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A404" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A405" t="s">
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A406" t="s">
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A407" t="s">
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A408" t="s">
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A409" t="s">
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A410" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A411" t="s">
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A412" t="s">
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A413" t="s">
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A414" t="s">
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A415" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A416" t="s">
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A417" t="s">
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A418" t="s">
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A419" t="s">
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A420" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A421" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A422" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A423" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A424" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A425" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A426" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A427" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A428" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A429" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A430" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A431" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A432" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A433" t="s">
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A434" t="s">
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A435" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A436" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A437" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A438" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A439" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A440" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A441" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A442" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A443" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A444" t="s">
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A445" t="s">
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A446" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A447" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A448" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A449" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A450" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A451" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A452" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A453" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A454" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A455" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A456" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A457" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A458" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A459" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A460" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A461" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A462" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A463" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A464" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A465" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A466" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A467" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A468" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A469" t="s">
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A470" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A471" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A472" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A473" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A474" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A475" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A476" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A477" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A478" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A479" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A480" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A481" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A482" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A483" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A484" t="s">
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A485" t="s">
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A486" t="s">
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A487" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A488" t="s">
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A489" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A490" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A491" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A492" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A493" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A494" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A495" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A496" t="s">
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A497" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A498" t="s">
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A499" t="s">
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A500" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A501" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A502" t="s">
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A503" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A504" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A505" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A506" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A507" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A508" t="s">
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A509" t="s">
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A510" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A511" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A512" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A513" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A514" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A515" t="s">
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A516" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A517" t="s">
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A518" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A519" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A520" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A521" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A522" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A523" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A524" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A525" t="s">
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A526" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A527" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A528" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A529" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A530" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A531" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A532" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A533" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A534" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A535" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A536" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A537" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A538" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A539" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A540" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A541" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A542" t="s">
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A543" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A544" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A545" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A546" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A547" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A548" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A549" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A550" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A551" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A552" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A553" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A554" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A555" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A556" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A557" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A558" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A559" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A560" t="s">
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A561" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A562" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A563" t="s">
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A564" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A565" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A566" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A567" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A568" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A569" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A570" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A571" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A572" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A573" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A574" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A575" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A576" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A577" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A578" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A579" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A580" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A581" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A582" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A583" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A584" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A585" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A586" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A587" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A588" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A589" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A590" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A591" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A592" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A593" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A594" t="s">
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A595" t="s">
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A596" t="s">
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A597" t="s">
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A598" t="s">
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A599" t="s">
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A600" t="s">
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A601" t="s">
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A602" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A603" t="s">
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A604" t="s">
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A605" t="s">
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A606" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A607" t="s">
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A608" t="s">
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A609" t="s">
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A610" t="s">
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A611" t="s">
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A612" t="s">
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A613" t="s">
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A614" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A615" t="s">
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A616" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A617" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A618" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A619" t="s">
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A620" t="s">
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A621" t="s">
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A622" t="s">
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A623" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A624" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A625" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A626" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A627" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A628" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A629" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A630" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A631" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A632" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A633" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A634" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A635" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A636" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A637" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A638" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A639" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A640" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A641" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A642" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A643" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A644" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A645" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A646" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A647" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A648" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A649" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A650" t="s">
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A651" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A652" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A653" t="s">
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A654" t="s">
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A655" t="s">
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A656" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A657" t="s">
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A658" t="s">
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A659" t="s">
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A660" t="s">
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A661" t="s">
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A662" t="s">
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A663" t="s">
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A664" t="s">
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A665" t="s">
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A666" t="s">
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A667" t="s">
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A668" t="s">
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A669" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A670" t="s">
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A671" t="s">
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A672" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A673" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A674" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A675" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A676" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A677" t="s">
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A678" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A679" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A680" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A681" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A682" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A683" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A684" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A685" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A686" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A687" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A688" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A689" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A690" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A691" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A692" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A693" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A694" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A695" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A696" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A697" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A698" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A699" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A700" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A701" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A702" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A703" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A704" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A705" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A706" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A707" t="s">
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A708" t="s">
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A709" t="s">
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A710" t="s">
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A711" t="s">
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A712" t="s">
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A713" t="s">
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A714" t="s">
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A715" t="s">
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A716" t="s">
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A717" t="s">
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A718" t="s">
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A719" t="s">
+    <row r="752" spans="1:1">
+      <c r="A752" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A720" t="s">
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A721" t="s">
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A722" t="s">
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A723" t="s">
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A724" t="s">
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A725" t="s">
+    <row r="758" spans="1:1">
+      <c r="A758" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A726" t="s">
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A727" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A728" t="s">
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A729" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A730" t="s">
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A731" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A732" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A733" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A734" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A735" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A736" t="s">
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A737" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A738" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A739" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A740" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A741" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A742" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A743" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A744" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A745" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A746" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A747" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A748" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A749" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A750" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A751" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A752" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A753" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A754" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A755" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A756" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A757" t="s">
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A758" t="s">
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A759" t="s">
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A760" t="s">
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A761" t="s">
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A762" t="s">
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A763" t="s">
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A764" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A765" t="s">
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A766" t="s">
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A767" t="s">
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A768" t="s">
+    <row r="799" spans="1:1">
+      <c r="A799" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A769" t="s">
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A770" t="s">
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A771" t="s">
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A772" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A773" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A774" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A775" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A776" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A777" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A778" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A779" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A780" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A781" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A782" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A783" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A784" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A785" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A786" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A787" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A788" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A789" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A790" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A791" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A792" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A793" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A794" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A795" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A796" t="s">
-        <v>990</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A81">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A84">
+  <conditionalFormatting sqref="A82:A89">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A76:A84">
-      <formula1>LEN(A76)=LEN(SUBSTITUTE(A76," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A81:A89">
+      <formula1>LEN(A81)=LEN(SUBSTITUTE(A81," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B76 B78:B87"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B81 B83:B92"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Samples/Dates_&_Time.xlsx
+++ b/Samples/Dates_&_Time.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil9289\Downloads\Survey123\Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Applications\Survey123Community\Survey123Community\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1026">
   <si>
     <t>type</t>
   </si>
@@ -728,9 +728,6 @@
     <t>signature</t>
   </si>
   <si>
-    <t>Applies to image fields.Presents a UI for signature capture. The signature will be added to the feature as an attachment.</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -3069,6 +3066,48 @@
   </si>
   <si>
     <t>date-time(decimal-date-time(${atimeinthefuture}) +  0.0104166675)</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>Records an audio sample.</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Presents a UI for signature capture. The signature will be added to the feature as an attachment.</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Allows user to open a canvas window to sketch on.</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>Applies to image fields. Allows user to open a canvas window to sketch on. Also supports annotation on images.</t>
+  </si>
+  <si>
+    <t>esriFieldTypeSingle</t>
+  </si>
+  <si>
+    <t>Single-precision floating point numbers</t>
+  </si>
+  <si>
+    <t>esriFieldTypeSmallInteger</t>
+  </si>
+  <si>
+    <t>Small whole numbers (from -32,768 to 32,767)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Does not require field in feature service.</t>
+  </si>
+  <si>
+    <t>GLOBALID</t>
   </si>
 </sst>
 </file>
@@ -3321,7 +3360,23 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3502,15 +3557,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X243" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:X243" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:X243"/>
   <tableColumns count="24">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="label" dataDxfId="4"/>
-    <tableColumn id="4" name="hint" dataDxfId="3"/>
+    <tableColumn id="3" name="label" dataDxfId="6"/>
+    <tableColumn id="4" name="hint" dataDxfId="5"/>
     <tableColumn id="5" name="constraint"/>
-    <tableColumn id="6" name="constraint_message" dataDxfId="2"/>
+    <tableColumn id="6" name="constraint_message" dataDxfId="4"/>
     <tableColumn id="7" name="required"/>
     <tableColumn id="20" name="required_message"/>
     <tableColumn id="8" name="appearance"/>
@@ -3844,7 +3899,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3886,7 +3941,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3910,15 +3965,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="24.265625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1"/>
-    <col min="6" max="6" width="24.28515625" style="1"/>
+    <col min="1" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="64.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.265625" style="1"/>
+    <col min="6" max="6" width="24.265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -3944,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -3962,10 +4017,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>104</v>
@@ -3980,7 +4035,7 @@
         <v>57</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="U1" s="24" t="s">
         <v>218</v>
@@ -3989,10 +4044,10 @@
         <v>219</v>
       </c>
       <c r="W1" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="X1" s="26" t="s">
         <v>256</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>257</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -4009,10 +4064,10 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="16.5" customHeight="1">
@@ -4020,13 +4075,13 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M3" t="s">
         <v>112</v>
@@ -4037,16 +4092,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="I4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M4" t="s">
         <v>112</v>
@@ -4057,16 +4112,16 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="I5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M5" t="s">
         <v>112</v>
@@ -4077,35 +4132,35 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="I6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="16.5" customHeight="1">
       <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="M7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="16.5" customHeight="1">
@@ -4113,16 +4168,16 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="16.5" customHeight="1">
@@ -4133,49 +4188,49 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="16.5" customHeight="1">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="16.5" customHeight="1">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E12" s="1"/>
       <c r="M12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="16.5" customHeight="1">
@@ -4183,19 +4238,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1">
@@ -4203,19 +4258,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1">
@@ -4223,19 +4278,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M15" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" customHeight="1">
@@ -4243,10 +4298,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" customHeight="1">
@@ -4254,10 +4309,10 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.5" customHeight="1">
@@ -4265,13 +4320,13 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="16.5" customHeight="1">
@@ -4279,13 +4334,13 @@
         <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M20" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" customHeight="1">
@@ -4293,13 +4348,13 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="L21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
@@ -4307,13 +4362,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" customHeight="1">
@@ -4321,13 +4376,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.5" customHeight="1">
@@ -4338,27 +4393,27 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" customHeight="1">
       <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>993</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B26" t="s">
-        <v>994</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="16.5" customHeight="1">
@@ -4366,22 +4421,22 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.5" customHeight="1">
@@ -4389,19 +4444,19 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" t="s">
         <v>340</v>
       </c>
-      <c r="E28" t="s">
-        <v>341</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -4412,22 +4467,22 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E29" t="s">
-        <v>343</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4451,22 +4506,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24 B18:B20 B2 B5:B16 B26:B27 B29:B240">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="1230" yWindow="762" count="19">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:C23 C25:C1048576"/>
@@ -4501,31 +4556,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1230" yWindow="762" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required" prompt="Select 'yes' to require a value in this field before completing the survey.">
           <x14:formula1>
-            <xm:f>types!$A$27:$A$28</xm:f>
+            <xm:f>types!$A$28:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid XLSForm Type" error="Please select yes if you are using a select_one or select_multiple XLS Form Type._x000a_Otherwise, please enter a valid XLS Form Type. " promptTitle="Enter a supported XLSForm type" prompt="Please select an XLS Form Type form the supplied list. Enter a valid list name if using a select_one or select_multiple XLS Form Type.">
           <x14:formula1>
-            <xm:f>types!$A$3:$A$24</xm:f>
+            <xm:f>types!$A$3:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Select 'yes' to set the values in this field to read-only. These values will not be able to be edited in the survey.">
           <x14:formula1>
-            <xm:f>types!$A$31:$A$32</xm:f>
+            <xm:f>types!$A$32:$A$33</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bind::esri:FieldType" prompt="Define the target field type in the feature service. This can be used to overwrite the default field type (e.g., calculate and select_one fields are strings by default. To save the values in the feature service as integers, select esriFieldTypeInteger).">
           <x14:formula1>
-            <xm:f>types!$A$132:$A$137</xm:f>
+            <xm:f>types!$A$135:$A$143</xm:f>
           </x14:formula1>
           <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>types!$A$35:$A$52</xm:f>
+            <xm:f>types!$A$36:$A$55</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
@@ -4544,11 +4599,11 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.73046875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4593,167 +4648,167 @@
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>309</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4775,15 +4830,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.3984375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
@@ -4797,21 +4852,21 @@
         <v>213</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>969</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>988</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
@@ -4826,18 +4881,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L802"/>
+  <dimension ref="A2:L809"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="74.73046875" customWidth="1"/>
+    <col min="3" max="3" width="52.86328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13.15">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
@@ -4931,10 +4986,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4990,7 +5045,7 @@
         <v>220</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5">
@@ -4998,23 +5053,23 @@
         <v>221</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5033,200 +5088,210 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.15">
+      <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="1"/>
-    </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="13.15">
+      <c r="A31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:2" ht="13.15">
+      <c r="A35" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="25" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>118</v>
+      <c r="A37" s="25" t="s">
+        <v>1015</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>243</v>
+      <c r="A38" s="25" t="s">
+        <v>1017</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>970</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
-        <v>971</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>356</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>969</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>970</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>975</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>976</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>977</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>978</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>979</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s">
-        <v>980</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="B52" t="s">
-        <v>982</v>
+        <v>975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="8" customFormat="1">
-      <c r="A54" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54"/>
+      <c r="A54" t="s">
+        <v>978</v>
+      </c>
+      <c r="B54" t="s">
+        <v>979</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -5240,26 +5305,15 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>980</v>
       </c>
       <c r="B55" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="s">
-        <v>264</v>
-      </c>
-      <c r="B56" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s">
-        <v>114</v>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="13.15">
+      <c r="A57" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -5268,130 +5322,121 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>982</v>
+      </c>
+    </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="14" t="s">
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="13.15">
+      <c r="A62" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" t="s">
         <v>236</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="B60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="14"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="14" t="s">
+    <row r="64" spans="1:12" ht="13.15">
+      <c r="A64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.15">
+      <c r="A65" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="9" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="22" customFormat="1">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5405,35 +5450,35 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
@@ -5444,3899 +5489,3961 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="15" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" ht="13.15">
+      <c r="A82" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="20" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B83" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C80" s="21"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="17" t="s">
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B84" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="17" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="19" t="s">
+      <c r="B95" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="15" t="s">
+    </row>
+    <row r="97" spans="1:2" ht="13.15">
+      <c r="A97" s="15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="9" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="25.5">
-      <c r="A98" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="25.5">
       <c r="A101" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="25.5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="25.5">
+      <c r="A128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="15" t="s">
+    <row r="134" spans="1:2" ht="13.15">
+      <c r="A134" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B137" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B140" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13.15">
+      <c r="A145" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="14" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" s="22" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" s="29"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C146" s="1"/>
+      <c r="C146" s="29"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="166" spans="1:3" ht="13.15">
+      <c r="A166" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="14" t="s">
+      <c r="B166" t="s">
         <v>404</v>
       </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="30" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="30" t="s">
+    <row r="168" spans="1:3">
+      <c r="A168" s="30" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="30" t="s">
+    <row r="169" spans="1:3">
+      <c r="A169" s="30" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="30" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="30" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="30" t="s">
+    <row r="172" spans="1:3">
+      <c r="A172" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="30" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="30" t="s">
+    <row r="175" spans="1:3">
+      <c r="A175" s="30" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="30" t="s">
+    <row r="177" spans="1:2" ht="13.15">
+      <c r="A177" s="15" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="15" t="s">
+      <c r="B177" t="s">
         <v>412</v>
       </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="5" t="s">
-        <v>539</v>
+      <c r="A297" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="5" t="s">
-        <v>540</v>
+      <c r="A298" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="5" t="s">
-        <v>541</v>
+      <c r="A299" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="5" t="s">
-        <v>542</v>
+      <c r="A300" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="5" t="s">
-        <v>543</v>
+      <c r="A301" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="5" t="s">
-        <v>544</v>
+      <c r="A302" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="5" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="5" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="5" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="5" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="5" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="5" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="5" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="5" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="5" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="5" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="5" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="5" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="5" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="5" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="5" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="5" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="5" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="5" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="5" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="5" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="5" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="5" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="5" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="5" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="5" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="5" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="5" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="5" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="5" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="5" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="5" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="5" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="5" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="5" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" t="s">
-        <v>600</v>
+      <c r="A358" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" t="s">
-        <v>601</v>
+      <c r="A359" s="5" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" t="s">
-        <v>602</v>
+      <c r="A360" s="5" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" t="s">
-        <v>603</v>
+      <c r="A361" s="5" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" t="s">
-        <v>604</v>
+      <c r="A362" s="5" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" t="s">
-        <v>416</v>
+      <c r="A363" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>418</v>
+        <v>602</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>419</v>
+        <v>603</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>608</v>
+        <v>415</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>616</v>
+        <v>420</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>621</v>
+        <v>421</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>636</v>
+        <v>430</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>432</v>
+        <v>634</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>437</v>
+        <v>638</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>645</v>
+        <v>431</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>654</v>
+        <v>437</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>441</v>
+        <v>651</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>442</v>
+        <v>656</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>662</v>
+        <v>440</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>445</v>
+        <v>657</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>666</v>
+        <v>441</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>447</v>
+        <v>662</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>449</v>
+        <v>666</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>671</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>672</v>
+        <v>446</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>670</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>672</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>679</v>
+        <v>449</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>680</v>
+        <v>450</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>682</v>
+        <v>451</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>676</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>688</v>
+        <v>457</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>461</v>
+        <v>683</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>695</v>
+        <v>460</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>463</v>
+        <v>689</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>701</v>
+        <v>462</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>468</v>
+        <v>705</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>469</v>
+        <v>707</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>716</v>
+        <v>467</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>718</v>
+        <v>468</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>472</v>
+        <v>712</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" t="s">
-        <v>473</v>
+        <v>714</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="31" t="b">
-        <v>0</v>
+      <c r="A506" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" t="s">
-        <v>479</v>
+        <v>718</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" t="s">
-        <v>722</v>
+        <v>472</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" t="s">
-        <v>725</v>
+      <c r="A512" s="31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" t="s">
-        <v>726</v>
+        <v>477</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" t="s">
-        <v>482</v>
+        <v>721</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" t="s">
-        <v>731</v>
+        <v>480</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" t="s">
-        <v>486</v>
+        <v>727</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>736</v>
+        <v>484</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" t="s">
-        <v>738</v>
+        <v>485</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" t="s">
-        <v>488</v>
+        <v>732</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" t="s">
-        <v>489</v>
+        <v>733</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" t="s">
-        <v>490</v>
+        <v>734</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" t="s">
-        <v>491</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" t="s">
-        <v>742</v>
+        <v>487</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" t="s">
-        <v>743</v>
+        <v>488</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>744</v>
+        <v>489</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" t="s">
-        <v>747</v>
+        <v>490</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" t="s">
-        <v>497</v>
+        <v>741</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" t="s">
-        <v>499</v>
+        <v>745</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" t="s">
-        <v>754</v>
+        <v>496</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>501</v>
+        <v>748</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" t="s">
-        <v>502</v>
+        <v>750</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" t="s">
-        <v>504</v>
+        <v>752</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" t="s">
-        <v>758</v>
+        <v>500</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" t="s">
-        <v>760</v>
+        <v>501</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" t="s">
-        <v>761</v>
+        <v>502</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>763</v>
+        <v>503</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" t="s">
-        <v>507</v>
+        <v>757</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" t="s">
-        <v>508</v>
+        <v>760</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" t="s">
-        <v>770</v>
+        <v>506</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" t="s">
-        <v>773</v>
+        <v>507</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" t="s">
-        <v>511</v>
+        <v>773</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" t="s">
-        <v>787</v>
+        <v>510</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" t="s">
-        <v>515</v>
+        <v>796</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" t="s">
-        <v>516</v>
+        <v>800</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" t="s">
-        <v>809</v>
+        <v>514</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" t="s">
-        <v>813</v>
+        <v>515</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" t="s">
-        <v>521</v>
+        <v>806</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" t="s">
-        <v>522</v>
+        <v>808</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" t="s">
-        <v>528</v>
+        <v>809</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" t="s">
-        <v>529</v>
+        <v>810</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>817</v>
+        <v>520</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" t="s">
-        <v>530</v>
+        <v>813</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" t="s">
-        <v>818</v>
+        <v>521</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" t="s">
-        <v>819</v>
+        <v>528</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" t="s">
-        <v>823</v>
+        <v>529</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" t="s">
-        <v>825</v>
+        <v>530</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" t="s">
-        <v>532</v>
+        <v>825</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>839</v>
+        <v>531</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" t="s">
-        <v>536</v>
+        <v>836</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" t="s">
-        <v>540</v>
+        <v>837</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" t="s">
-        <v>545</v>
+        <v>841</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>848</v>
+        <v>535</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" t="s">
-        <v>849</v>
+        <v>539</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" t="s">
-        <v>853</v>
+        <v>544</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" t="s">
-        <v>547</v>
+        <v>851</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>549</v>
+        <v>853</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" t="s">
-        <v>864</v>
+        <v>546</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" t="s">
-        <v>552</v>
+        <v>858</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" t="s">
-        <v>865</v>
+        <v>548</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" t="s">
-        <v>871</v>
+        <v>551</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" t="s">
-        <v>560</v>
+        <v>871</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" t="s">
-        <v>564</v>
+        <v>876</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" t="s">
-        <v>884</v>
+        <v>559</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" t="s">
-        <v>568</v>
+        <v>879</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" t="s">
-        <v>888</v>
+        <v>563</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>892</v>
+        <v>567</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" t="s">
-        <v>570</v>
+        <v>903</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" t="s">
-        <v>571</v>
+        <v>905</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" t="s">
-        <v>572</v>
+        <v>906</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" t="s">
-        <v>574</v>
+        <v>908</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" t="s">
-        <v>914</v>
+        <v>569</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" t="s">
-        <v>916</v>
+        <v>571</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" t="s">
-        <v>918</v>
+        <v>573</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" t="s">
-        <v>922</v>
+        <v>574</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="758" spans="1:1">
-      <c r="A758" t="b">
-        <v>1</v>
+      <c r="A758" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" t="s">
-        <v>583</v>
+        <v>926</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" t="s">
-        <v>584</v>
+        <v>927</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="765" spans="1:1">
-      <c r="A765" t="s">
-        <v>935</v>
+      <c r="A765" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" t="s">
-        <v>938</v>
+        <v>582</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" t="s">
-        <v>939</v>
+        <v>583</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" t="s">
-        <v>589</v>
+        <v>932</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>946</v>
+        <v>588</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" t="s">
-        <v>594</v>
+        <v>944</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" t="s">
-        <v>595</v>
+        <v>946</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" t="s">
-        <v>597</v>
+        <v>949</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" t="s">
-        <v>956</v>
+        <v>593</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" t="s">
-        <v>958</v>
+        <v>594</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" t="s">
-        <v>961</v>
+        <v>596</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>968</v>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="A84">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A89">
+  <conditionalFormatting sqref="A85:A92">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A81:A89">
-      <formula1>LEN(A81)=LEN(SUBSTITUTE(A81," ",""))</formula1>
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" errorTitle="No spaces allowed" promptTitle="Database Field Name" prompt="This will be the field name in the resulting database. This should be unique and contain no spaces (e.g., first_name, survey_date)." sqref="A84:A92">
+      <formula1>LEN(A84)=LEN(SUBSTITUTE(A84," ",""))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B81 B83:B92"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B84 B86:B95"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
